--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed1/result_data_KNN.xlsx
@@ -480,15 +480,15 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.404</v>
+        <v>-8.106000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.074</v>
+        <v>-21.703</v>
       </c>
       <c r="B4" t="n">
-        <v>5.864000000000001</v>
+        <v>5.412000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.276</v>
+        <v>-22.209</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.408</v>
+        <v>-20.451</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.834</v>
+        <v>-12.154</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.404</v>
+        <v>-11.861</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.014</v>
+        <v>5.519</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.554</v>
+        <v>-13.173</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.604000000000001</v>
+        <v>4.912999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,10 +617,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-11.16</v>
+        <v>-12.379</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.042</v>
+        <v>-7.787000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.778</v>
+        <v>-21.507</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.378</v>
+        <v>-12.696</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.422</v>
+        <v>5.673999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.033999999999999</v>
+        <v>5.743</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>6.648000000000001</v>
+        <v>6.792</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.744</v>
+        <v>-21.711</v>
       </c>
       <c r="B20" t="n">
-        <v>7.554</v>
+        <v>6.343999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.610000000000001</v>
+        <v>-7.657000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.144</v>
+        <v>-7.987</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.516</v>
+        <v>5.588</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.398</v>
+        <v>-21.619</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.718</v>
+        <v>-21.128</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.19</v>
+        <v>-11.774</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.582</v>
+        <v>5.958</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.812</v>
+        <v>-21.452</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.302000000000001</v>
+        <v>-7.715999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -978,24 +978,24 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>6.104</v>
+        <v>6.648999999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.864000000000002</v>
+        <v>-7.742</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.146</v>
+        <v>-21.587</v>
       </c>
       <c r="B40" t="n">
-        <v>6.06</v>
+        <v>5.786</v>
       </c>
       <c r="C40" t="n">
-        <v>-10.902</v>
+        <v>-11.257</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>4.474</v>
+        <v>6.458000000000001</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>5.566000000000001</v>
+        <v>6.163</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.094</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.522</v>
+        <v>-12.053</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.216</v>
+        <v>-21.589</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.606</v>
+        <v>5.455</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.456</v>
+        <v>5.44</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.178</v>
+        <v>-21.545</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1152,12 +1152,12 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.952</v>
+        <v>-8.346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.222</v>
+        <v>-21.651</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.12</v>
+        <v>-21.806</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.582</v>
+        <v>-21.781</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.248000000000001</v>
+        <v>-8.010000000000002</v>
       </c>
     </row>
     <row r="60">
@@ -1292,12 +1292,12 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.120000000000001</v>
+        <v>-7.923</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.728</v>
+        <v>-21.779</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.604</v>
+        <v>5.252</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,13 +1328,13 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.268000000000001</v>
+        <v>5.802</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.608</v>
+        <v>-7.906999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.07</v>
+        <v>-21.23</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-21.28</v>
+        <v>-21.021</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-20.284</v>
+        <v>-20.504</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.247999999999999</v>
+        <v>5.976000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.290000000000001</v>
+        <v>-8.638</v>
       </c>
     </row>
     <row r="79">
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.088</v>
+        <v>5.979</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.675999999999998</v>
+        <v>-8.236999999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.006</v>
+        <v>5.315</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.742</v>
+        <v>-14.055</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.476</v>
+        <v>-12.801</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.46</v>
+        <v>-21.528</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.117</v>
       </c>
     </row>
     <row r="93">
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>5.266</v>
+        <v>5.279999999999999</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.901999999999999</v>
+        <v>-7.468999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.296</v>
+        <v>-21.26</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.326000000000001</v>
+        <v>-8.099</v>
       </c>
     </row>
     <row r="101">
